--- a/app/excel/MATCHUPCLICK.xlsx
+++ b/app/excel/MATCHUPCLICK.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="78">
   <si>
     <t>Comment</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -158,10 +158,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>natural born, inborn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>星期天</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -274,7 +270,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sound</t>
+    <t>Language</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Speaker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -282,19 +290,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Language</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mandarin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>English</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>F2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>natural inborn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inborn, inherited, not acquired</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -302,7 +334,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -322,6 +354,23 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -350,11 +399,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -651,10 +706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S14"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H14"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -662,18 +717,18 @@
     <col min="1" max="1" width="4.125" customWidth="1"/>
     <col min="2" max="2" width="31.5" customWidth="1"/>
     <col min="3" max="3" width="10.375" customWidth="1"/>
-    <col min="4" max="4" width="6.875" customWidth="1"/>
-    <col min="5" max="5" width="9.75" customWidth="1"/>
-    <col min="6" max="7" width="21" customWidth="1"/>
-    <col min="8" max="8" width="6.625" customWidth="1"/>
-    <col min="9" max="9" width="9.5" customWidth="1"/>
-    <col min="10" max="10" width="21.375" customWidth="1"/>
+    <col min="4" max="5" width="21" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="8.5" customWidth="1"/>
+    <col min="8" max="8" width="21.375" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
+    <col min="10" max="10" width="10.125" customWidth="1"/>
     <col min="11" max="11" width="10" customWidth="1"/>
-    <col min="12" max="12" width="10.125" customWidth="1"/>
-    <col min="13" max="13" width="10" customWidth="1"/>
-    <col min="14" max="14" width="10.25" customWidth="1"/>
-    <col min="15" max="17" width="10.125" customWidth="1"/>
-    <col min="19" max="19" width="11.875" customWidth="1"/>
+    <col min="12" max="12" width="10.25" customWidth="1"/>
+    <col min="13" max="15" width="10.125" customWidth="1"/>
+    <col min="17" max="17" width="11.875" customWidth="1"/>
+    <col min="18" max="18" width="8.75" customWidth="1"/>
+    <col min="19" max="19" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -687,52 +742,52 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="19.5" customHeight="1">
@@ -746,49 +801,49 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>60</v>
+      </c>
+      <c r="R2" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="S2" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="I2" t="s">
-        <v>68</v>
-      </c>
-      <c r="J2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L2" t="s">
-        <v>44</v>
-      </c>
-      <c r="M2" t="s">
-        <v>45</v>
-      </c>
-      <c r="N2" t="s">
-        <v>46</v>
-      </c>
-      <c r="O2" t="s">
-        <v>47</v>
-      </c>
-      <c r="P2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>49</v>
-      </c>
-      <c r="S2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -796,40 +851,40 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>60</v>
+      </c>
+      <c r="R3" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H3" t="s">
-        <v>69</v>
-      </c>
-      <c r="I3" t="s">
-        <v>68</v>
-      </c>
-      <c r="J3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" t="s">
-        <v>50</v>
-      </c>
-      <c r="L3" t="s">
-        <v>51</v>
-      </c>
-      <c r="M3" t="s">
-        <v>52</v>
-      </c>
-      <c r="N3" t="s">
-        <v>53</v>
-      </c>
-      <c r="S3" t="s">
-        <v>61</v>
+      <c r="S3" s="3" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -837,40 +892,40 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" t="s">
-        <v>62</v>
+        <v>61</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="H4" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="J4" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="K4" t="s">
         <v>54</v>
       </c>
       <c r="L4" t="s">
-        <v>52</v>
-      </c>
-      <c r="M4" t="s">
         <v>55</v>
       </c>
-      <c r="N4" t="s">
-        <v>56</v>
-      </c>
-      <c r="S4" t="s">
-        <v>61</v>
+      <c r="Q4" t="s">
+        <v>60</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -878,40 +933,40 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5" t="s">
+        <v>57</v>
+      </c>
+      <c r="L5" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R5" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H5" t="s">
-        <v>69</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="S5" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="J5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" t="s">
-        <v>55</v>
-      </c>
-      <c r="L5" t="s">
-        <v>57</v>
-      </c>
-      <c r="M5" t="s">
-        <v>58</v>
-      </c>
-      <c r="N5" t="s">
-        <v>59</v>
-      </c>
-      <c r="S5" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -925,34 +980,34 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>61</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="S6" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="F6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" t="s">
-        <v>61</v>
-      </c>
-      <c r="H6" t="s">
-        <v>69</v>
-      </c>
-      <c r="I6" t="s">
-        <v>67</v>
-      </c>
-      <c r="J6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" t="s">
-        <v>41</v>
-      </c>
-      <c r="L6" t="s">
-        <v>42</v>
-      </c>
-      <c r="S6" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -960,34 +1015,34 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G7" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q7" t="s">
         <v>61</v>
       </c>
-      <c r="H7" t="s">
+      <c r="R7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="S7" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="I7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L7" t="s">
-        <v>32</v>
-      </c>
-      <c r="S7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -995,31 +1050,31 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E8" t="s">
+      <c r="G8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>61</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="S8" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="F8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" t="s">
-        <v>61</v>
-      </c>
-      <c r="H8" t="s">
-        <v>69</v>
-      </c>
-      <c r="I8" t="s">
-        <v>67</v>
-      </c>
-      <c r="J8" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8" t="s">
-        <v>32</v>
-      </c>
-      <c r="S8" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -1027,31 +1082,31 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E9" t="s">
-        <v>68</v>
-      </c>
-      <c r="F9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="G9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q9" t="s">
         <v>61</v>
       </c>
-      <c r="H9" t="s">
-        <v>69</v>
-      </c>
-      <c r="I9" t="s">
-        <v>67</v>
-      </c>
-      <c r="J9" t="s">
-        <v>33</v>
-      </c>
-      <c r="K9" t="s">
-        <v>33</v>
-      </c>
-      <c r="S9" t="s">
-        <v>62</v>
+      <c r="R9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -1059,34 +1114,34 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E10" t="s">
-        <v>68</v>
-      </c>
-      <c r="F10" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="G10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q10" t="s">
         <v>61</v>
       </c>
-      <c r="H10" t="s">
-        <v>69</v>
-      </c>
-      <c r="I10" t="s">
-        <v>67</v>
-      </c>
-      <c r="J10" t="s">
-        <v>34</v>
-      </c>
-      <c r="K10" t="s">
-        <v>33</v>
-      </c>
-      <c r="L10" t="s">
-        <v>32</v>
-      </c>
-      <c r="S10" t="s">
-        <v>62</v>
+      <c r="R10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1094,37 +1149,37 @@
         <v>5</v>
       </c>
       <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E11" t="s">
+      <c r="G11" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q11" t="s">
         <v>61</v>
       </c>
-      <c r="H11" t="s">
-        <v>69</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="R11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="S11" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="J11" t="s">
-        <v>36</v>
-      </c>
-      <c r="K11" t="s">
-        <v>41</v>
-      </c>
-      <c r="L11" t="s">
-        <v>42</v>
-      </c>
-      <c r="M11" t="s">
-        <v>33</v>
-      </c>
-      <c r="S11" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1132,34 +1187,34 @@
         <v>6</v>
       </c>
       <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E12" t="s">
+      <c r="G12" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q12" t="s">
         <v>61</v>
       </c>
-      <c r="H12" t="s">
-        <v>69</v>
-      </c>
-      <c r="I12" t="s">
-        <v>67</v>
-      </c>
-      <c r="J12" t="s">
-        <v>37</v>
-      </c>
-      <c r="K12" t="s">
-        <v>41</v>
-      </c>
-      <c r="L12" t="s">
-        <v>41</v>
-      </c>
-      <c r="S12" t="s">
-        <v>62</v>
+      <c r="R12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1167,34 +1222,34 @@
         <v>7</v>
       </c>
       <c r="D13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E13" t="s">
+      <c r="G13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>61</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="S13" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="F13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" t="s">
-        <v>61</v>
-      </c>
-      <c r="H13" t="s">
-        <v>69</v>
-      </c>
-      <c r="I13" t="s">
-        <v>67</v>
-      </c>
-      <c r="J13" t="s">
-        <v>38</v>
-      </c>
-      <c r="K13" t="s">
-        <v>33</v>
-      </c>
-      <c r="L13" t="s">
-        <v>33</v>
-      </c>
-      <c r="S13" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1202,31 +1257,57 @@
         <v>8</v>
       </c>
       <c r="D14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E14" t="s">
+      <c r="G14" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F14" t="s">
+      <c r="H14" t="s">
         <v>39</v>
       </c>
-      <c r="G14" t="s">
+      <c r="I14" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q14" t="s">
         <v>61</v>
       </c>
-      <c r="H14" t="s">
+      <c r="R14" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="S14" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="I14" t="s">
-        <v>67</v>
-      </c>
-      <c r="J14" t="s">
-        <v>40</v>
-      </c>
-      <c r="K14" t="s">
-        <v>40</v>
-      </c>
-      <c r="S14" t="s">
-        <v>62</v>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="C15">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H15" t="s">
+        <v>75</v>
+      </c>
+      <c r="I15" t="s">
+        <v>76</v>
+      </c>
+      <c r="J15" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
